--- a/Presença.xlsx
+++ b/Presença.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab 06-Micro 10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab 06-Micro 10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AFA760C-A13F-4B30-B2FF-6F5AED451160}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8E7D3-E360-4CB5-BC68-5A68D398937D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{CE97A060-1293-4C50-BAAB-D3D78104C3D5}"/>
   </bookViews>
@@ -127,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -154,10 +154,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -167,14 +191,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,125 +515,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084090E3-10F6-4E06-85B8-A8B597E269FF}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
